--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -973,6 +973,10 @@
   </si>
   <si>
     <t>テキスト、Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1497,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H40"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1513,8 +1517,8 @@
     <col min="8" max="8" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="14.25" thickBot="1"/>
-    <row r="2" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1533,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="3:8" ht="52.5" customHeight="1">
+    <row r="3" spans="2:8" ht="52.5" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="52.5" customHeight="1">
+    <row r="4" spans="2:8" ht="52.5" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="52.5" customHeight="1">
+    <row r="5" spans="2:8" ht="52.5" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="52.5" customHeight="1">
+    <row r="6" spans="2:8" ht="52.5" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="52.5" customHeight="1">
+    <row r="7" spans="2:8" ht="52.5" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="52.5" customHeight="1">
+    <row r="8" spans="2:8" ht="52.5" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="52.5" customHeight="1">
+    <row r="9" spans="2:8" ht="52.5" customHeight="1">
       <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="52.5" customHeight="1">
+    <row r="10" spans="2:8" ht="52.5" customHeight="1">
       <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1675,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="52.5" customHeight="1">
+    <row r="11" spans="2:8" ht="52.5" customHeight="1">
+      <c r="B11" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1698,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="52.5" customHeight="1">
+    <row r="12" spans="2:8" ht="52.5" customHeight="1">
+      <c r="B12" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="13.5" customHeight="1">
+    <row r="13" spans="2:8" ht="13.5" customHeight="1">
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="12"/>
@@ -1719,7 +1729,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="3:8" ht="52.5" customHeight="1">
+    <row r="14" spans="2:8" ht="52.5" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="52.5" customHeight="1">
+    <row r="15" spans="2:8" ht="52.5" customHeight="1">
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="52.5" customHeight="1">
+    <row r="16" spans="2:8" ht="52.5" customHeight="1">
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -976,7 +981,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x</t>
+    <t>checkDuplication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getmapinfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapid, mapname, imgpath, pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの情報を取得する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1000,7 +1043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1053,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,22 +1103,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1049,7 +1128,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1057,38 +1136,38 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,10 +1175,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,16 +1187,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1125,14 +1204,14 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,9 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,6 +1276,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,538 +1652,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H40"/>
+  <dimension ref="C1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="9" style="16"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="70.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C2" s="8" t="s">
+    <row r="1" spans="3:8" ht="14.25" thickBot="1"/>
+    <row r="2" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="52.5" customHeight="1">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="81.75" customHeight="1">
+      <c r="C16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="63.75" customHeight="1">
+      <c r="C17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="84" customHeight="1">
+      <c r="C18" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C21" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C22" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C23" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="52.5" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="52.5" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="81.75" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="63.75" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="84" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="D23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="3:8" ht="52.5" customHeight="1">
       <c r="C25" s="1"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:8" ht="52.5" customHeight="1">
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:8" ht="52.5" customHeight="1">
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="3:8" ht="52.5" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="3:8" ht="52.5" customHeight="1">
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="52.5" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="52.5" customHeight="1">
@@ -2040,88 +2197,113 @@
         <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="6" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="6"/>
-    </row>
     <row r="36" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="3:8" ht="52.5" customHeight="1">
       <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="3:8" ht="52.5" customHeight="1">
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="7"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2131,10 +2313,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2144,9 +2331,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -973,6 +978,48 @@
   </si>
   <si>
     <t>テキスト、Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkDuplication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getmapinfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapid, mapname, imgpath, pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの情報を取得する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -996,7 +1043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,6 +1053,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,22 +1103,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1045,7 +1128,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1053,38 +1136,38 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,10 +1175,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,16 +1187,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1121,14 +1204,14 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,9 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,6 +1276,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,532 +1652,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H40"/>
+  <dimension ref="C1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="9" style="16"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="70.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8" ht="14.25" thickBot="1"/>
     <row r="2" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="15"/>
+    <row r="13" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="16" spans="3:8" ht="81.75" customHeight="1">
+      <c r="C16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6" t="s">
+    <row r="17" spans="3:8" ht="63.75" customHeight="1">
+      <c r="C17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="81.75" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="63.75" customHeight="1">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="3:8" ht="84" customHeight="1">
+      <c r="C18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>30</v>
+      <c r="F18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="84" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="6" t="s">
+    <row r="21" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C21" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C22" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C23" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="6" t="s">
+    <row r="24" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="3:8" ht="52.5" customHeight="1">
       <c r="C25" s="1"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:8" ht="52.5" customHeight="1">
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:8" ht="52.5" customHeight="1">
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="3:8" ht="52.5" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="3:8" ht="52.5" customHeight="1">
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="52.5" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="52.5" customHeight="1">
@@ -2030,88 +2197,113 @@
         <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="6" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="6"/>
-    </row>
     <row r="36" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="3:8" ht="52.5" customHeight="1">
       <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="3:8" ht="52.5" customHeight="1">
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="7"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:8" ht="52.5" customHeight="1">
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2121,10 +2313,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2134,9 +2331,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="131">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -146,16 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserId、x座標、y座標、Key</t>
-    <rPh sb="8" eb="10">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>getUserinfo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,10 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MapId、Key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップのチャットログを取得する</t>
     <rPh sb="11" eb="13">
       <t>シュトク</t>
@@ -208,22 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多分プロフィール登録時にも使える</t>
-    <rPh sb="0" eb="2">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Client</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,16 +225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserId、移動先MapId、Key</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Server</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,22 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用可能か不可能か教える</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>フカノウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,37 +461,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配列{階Id、階名}、配列{MapId(部屋ID)、マップ名(部屋名)}</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -603,14 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserId、Key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserId、x座標、y座標</t>
     <rPh sb="8" eb="10">
       <t>ザヒョウ</t>
@@ -625,10 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID、Key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>getProfile</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,34 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID、名前、学籍番号、アバターID、学年、性別、生年月日、一言コメント、Key</t>
-    <rPh sb="7" eb="9">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒトコト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配列{名前、学籍番号、アバターID、学年、性別、生年月日、一言コメント}</t>
     <rPh sb="0" eb="2">
       <t>ハイレツ</t>
@@ -817,34 +690,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ソウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserID、名前、学籍番号、アバターID、学年、性別、生年月日、一言コメント</t>
-    <rPh sb="7" eb="9">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒトコト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -977,10 +822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキスト、Key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>checkDuplication</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1020,6 +861,291 @@
     <rPh sb="7" eb="9">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃止？</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MapId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. keyはすべて小文字</t>
+    <rPh sb="10" eb="13">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"posupdate",userid:000, x:30, y:30}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getuserinfo",userid:000}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"userinfo", userid:000, username:"name", x: 30, y:30, mapid:31, avatar:1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"allchat",text:"text"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"chat", userid:"000", text:"text", time:[timestamp]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile", userid:"000"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{name:0, studentid:0, avatar:0, grade:0, gender:0, birthday:0, comment:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapid"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列{mapid, マップ名}</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{maplist: [{mapid: 31, mapname:"3A教室"},{mapid:32, mapname:"3B教室"}, . . . . ]}</t>
+    <rPh sb="34" eb="36">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キョウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"duplication", username: "name"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserId、移動先MapId</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"transfermap", mapid:31}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"transfermap", x: 30, y:30, mapid:31}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapinfo", mapid:31}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapinfo", mapid:31, imgpath:"/img/", x: 0, y:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのマップＩＤとマップ名を取得</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのマップリストを取得する</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getMaplist</t>
+  </si>
+  <si>
+    <t>getMaplist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階は番号からわかるので、マップのリストだけを取得する</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント</t>
+    <rPh sb="7" eb="9">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒトコト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, ender:1, birthday:"2000-01-01",comment:""}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
+    <rPh sb="7" eb="9">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒトコト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[重複 1、無効 2、登録可能 0]</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"duplication", result:0}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1043,7 +1169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,6 +1483,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,648 +1835,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H41"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="8.875" style="15"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="70.625" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="15"/>
+    <col min="5" max="5" width="39.25" style="48" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="14.25" thickBot="1"/>
-    <row r="2" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="2:9" ht="68.25" customHeight="1">
+      <c r="D1" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="52.5" customHeight="1">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B4" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="52.5" customHeight="1">
+      <c r="C16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="81.75" customHeight="1">
+      <c r="C17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="63.75" customHeight="1">
+      <c r="C18" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="84" customHeight="1">
+      <c r="C19" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C22" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C23" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C25" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C26" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="D26" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="27" t="s">
+    </row>
+    <row r="27" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C27" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C7" s="28" t="s">
+      <c r="I27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C13" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C15" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="34" t="s">
+    </row>
+    <row r="28" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="81.75" customHeight="1">
-      <c r="C16" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="D28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="63.75" customHeight="1">
-      <c r="C17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="84" customHeight="1">
-      <c r="C18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C19" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C20" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C22" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C23" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C24" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="3:8" ht="52.5" customHeight="1">
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" ht="52.5" customHeight="1">
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="3:8" ht="52.5" customHeight="1">
+      <c r="G29" s="11"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="3:9" ht="52.5" customHeight="1">
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="3:8" ht="52.5" customHeight="1">
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="3:9" ht="52.5" customHeight="1">
       <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="84" customHeight="1">
+      <c r="C40" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="G40" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:8" ht="52.5" customHeight="1">
-      <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="6"/>
+      <c r="H40" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -244,10 +244,6 @@
     <rPh sb="15" eb="16">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>checkDuplication</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -603,22 +599,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィールの更新処理の結果を通知する</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,10 +802,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkDuplication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>getmapinfo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1020,34 +996,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定</t>
-    <rPh sb="0" eb="2">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント</t>
     <rPh sb="7" eb="9">
       <t>ガクセキ</t>
@@ -1076,10 +1024,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, ender:1, birthday:"2000-01-01",comment:""}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
     <rPh sb="7" eb="9">
       <t>ガクセキ</t>
@@ -1146,6 +1090,97 @@
   </si>
   <si>
     <t>{method:"duplication", result:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:""}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>duplication</t>
+  </si>
+  <si>
+    <t>成功した場合は0</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[成功0, 失敗1]</t>
+    <rPh sb="1" eb="3">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールの更新処理の結果を通知する。登録完了ならstatus=0, なんらかのエラーが発生した場合は1</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定(show 0/ hide:1)。</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1837,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1855,13 +1890,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="68.25" customHeight="1">
       <c r="D1" s="56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -1880,7 +1915,7 @@
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>12</v>
@@ -1893,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>7</v>
@@ -1901,7 +1936,7 @@
     </row>
     <row r="5" spans="2:9" ht="52.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>12</v>
@@ -1914,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>6</v>
@@ -1928,16 +1963,16 @@
         <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>7</v>
@@ -1951,16 +1986,16 @@
         <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>6</v>
@@ -1971,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -1990,10 +2025,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>22</v>
@@ -2011,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -2031,10 +2066,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>23</v>
@@ -2048,13 +2083,13 @@
     </row>
     <row r="12" spans="2:9" ht="52.5" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="18" t="s">
@@ -2072,13 +2107,13 @@
     </row>
     <row r="13" spans="2:9" ht="52.5" customHeight="1">
       <c r="B13" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="52"/>
       <c r="F13" s="18" t="s">
@@ -2096,19 +2131,19 @@
     </row>
     <row r="14" spans="2:9" ht="52.5" customHeight="1">
       <c r="C14" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2119,19 +2154,19 @@
     </row>
     <row r="15" spans="2:9" ht="52.5" customHeight="1">
       <c r="C15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>63</v>
-      </c>
       <c r="G15" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>7</v>
@@ -2140,21 +2175,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="52.5" customHeight="1">
+    <row r="16" spans="2:9" ht="117" customHeight="1">
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>27</v>
@@ -2163,21 +2198,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="81.75" customHeight="1">
+    <row r="17" spans="3:9" ht="120" customHeight="1">
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>7</v>
@@ -2188,14 +2223,14 @@
     </row>
     <row r="18" spans="3:9" ht="63.75" customHeight="1">
       <c r="C18" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="40" t="s">
@@ -2207,19 +2242,19 @@
     </row>
     <row r="19" spans="3:9" ht="84" customHeight="1">
       <c r="C19" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>7</v>
@@ -2233,10 +2268,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>37</v>
@@ -2248,7 +2283,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="52.5" customHeight="1">
@@ -2256,16 +2291,16 @@
         <v>36</v>
       </c>
       <c r="D21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>75</v>
-      </c>
       <c r="G21" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="40" t="s">
         <v>34</v>
@@ -2276,61 +2311,61 @@
     </row>
     <row r="22" spans="3:9" ht="52.5" customHeight="1">
       <c r="C22" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="52.5" customHeight="1">
       <c r="C23" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="52.5" customHeight="1">
       <c r="C24" s="41" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>28</v>
@@ -2338,19 +2373,19 @@
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>39</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>34</v>
@@ -2361,17 +2396,17 @@
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="61" t="s">
         <v>6</v>
@@ -2379,17 +2414,19 @@
     </row>
     <row r="27" spans="3:9" ht="52.5" customHeight="1">
       <c r="C27" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>81</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>83</v>
       </c>
       <c r="H27" s="61" t="s">
         <v>7</v>
@@ -2400,10 +2437,10 @@
     </row>
     <row r="28" spans="3:9" ht="52.5" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="11"/>
@@ -2436,10 +2473,10 @@
     </row>
     <row r="32" spans="3:9" ht="52.5" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="11"/>
@@ -2448,17 +2485,17 @@
     </row>
     <row r="33" spans="3:9" ht="52.5" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>27</v>
@@ -2469,14 +2506,14 @@
     </row>
     <row r="34" spans="3:9" ht="52.5" customHeight="1">
       <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5" t="s">
@@ -2488,17 +2525,17 @@
     </row>
     <row r="35" spans="3:9" ht="52.5" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>27</v>
@@ -2509,14 +2546,14 @@
     </row>
     <row r="36" spans="3:9" ht="52.5" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5" t="s">
@@ -2536,58 +2573,58 @@
     </row>
     <row r="38" spans="3:9" ht="52.5" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="52.5" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="I39" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="84" customHeight="1">
       <c r="C40" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="H40" s="40" t="s">
         <v>34</v>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="137">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -1152,10 +1152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定(show 0/ hide:1)。</t>
     <rPh sb="0" eb="2">
       <t>タブン</t>
@@ -1179,6 +1175,88 @@
       <t>ヒヒョウジ</t>
     </rPh>
     <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile",studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークンキー、トークンシークレットキー、UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
+    <rPh sb="27" eb="29">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒトコト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile",accesstoken:"",accesstokensecret:"",studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時に使う。最後の３つは表示/非表示設定(show 0/ hide:1)。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1870,7 +1948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -2180,154 +2258,156 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="120" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="117" customHeight="1">
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="120" customHeight="1">
+      <c r="C18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E18" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F18" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="63.75" customHeight="1">
-      <c r="C18" s="36" t="s">
+    <row r="19" spans="3:9" ht="63.75" customHeight="1">
+      <c r="C19" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="53" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40" t="s">
+      <c r="G19" s="39"/>
+      <c r="H19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="84" customHeight="1">
-      <c r="C19" s="36" t="s">
+    <row r="20" spans="3:9" ht="84" customHeight="1">
+      <c r="C20" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D20" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E20" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C20" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="52.5" customHeight="1">
       <c r="C21" s="36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="52.5" customHeight="1">
       <c r="C22" s="36" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="H22" s="40" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="52.5" customHeight="1">
@@ -2335,40 +2415,41 @@
         <v>86</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C24" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C24" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
@@ -2376,80 +2457,92 @@
         <v>128</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C26" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C26" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="52.5" customHeight="1">
       <c r="C27" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>129</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E27" s="59"/>
       <c r="F27" s="60" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G27" s="60" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C28" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
       <c r="E29" s="46"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2472,12 +2565,8 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="46"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2485,63 +2574,54 @@
     </row>
     <row r="33" spans="3:9" ht="52.5" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E33" s="46"/>
-      <c r="F33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="3:9" ht="52.5" customHeight="1">
       <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="52.5" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="52.5" customHeight="1">
@@ -2549,105 +2629,126 @@
         <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="5" t="s">
+      <c r="G37" s="11"/>
+      <c r="H37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="5"/>
-    </row>
     <row r="38" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="3:9" ht="52.5" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="84" customHeight="1">
-      <c r="C40" s="36" t="s">
+    <row r="41" spans="3:9" ht="84" customHeight="1">
+      <c r="C41" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D41" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E41" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F41" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G41" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H41" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I41" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="6"/>
+    <row r="42" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -996,34 +996,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント</t>
-    <rPh sb="7" eb="9">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒトコト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
     <rPh sb="7" eb="9">
       <t>ガクセキ</t>
@@ -1093,10 +1065,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getprofile", userid: 000, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:""}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1152,34 +1120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定(show 0/ hide:1)。</t>
-    <rPh sb="0" eb="2">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{method:"getprofile",studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1237,7 +1177,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録時に使う。最後の３つは表示/非表示設定(show 0/ hide:1)。</t>
+    <t>登録時に使う。最後の３つは表示/非表示設定(show 1/ hide:0)。</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
@@ -1259,6 +1199,60 @@
     <rPh sb="19" eb="21">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分プロフィール登録時にも使える。最後の３つは表示/非表示設定(show 1/ hide:0)。</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserID、名前、アバターID、学年、性別、生年月日、一言コメント</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒトコト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getprofile", userid: 000, username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:""}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1950,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2235,10 +2229,10 @@
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2258,16 +2252,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2281,16 +2275,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2310,7 +2304,7 @@
         <v>107</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2454,7 +2448,7 @@
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>40</v>
@@ -2474,16 +2468,16 @@
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>38</v>
@@ -2518,13 +2512,13 @@
         <v>78</v>
       </c>
       <c r="D28" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>129</v>
-      </c>
       <c r="F28" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G28" s="60" t="s">
         <v>81</v>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -771,10 +771,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status,key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン処理テスト</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -786,10 +782,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Client</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1253,14 +1245,36 @@
   </si>
   <si>
     <t>{method:"getprofile", userid: 000, username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:""}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"logintest", userid:"tera911", password:"testtest"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"loginstatus", status : 0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン 成功は0, 失敗は1</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,34 +1955,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="15"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="70.625" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="48" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="15"/>
+    <col min="2" max="2" width="8.83203125" style="15"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="68.25" customHeight="1">
       <c r="D1" s="56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="14.25" thickBot="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="18" thickBot="1"/>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -1987,7 +2001,7 @@
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>12</v>
@@ -2008,7 +2022,7 @@
     </row>
     <row r="5" spans="2:9" ht="52.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>12</v>
@@ -2038,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>16</v>
@@ -2061,7 +2075,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>17</v>
@@ -2078,10 +2092,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2100,7 +2114,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>22</v>
@@ -2118,10 +2132,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -2141,7 +2155,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>23</v>
@@ -2155,13 +2169,13 @@
     </row>
     <row r="12" spans="2:9" ht="52.5" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="18" t="s">
@@ -2179,7 +2193,7 @@
     </row>
     <row r="13" spans="2:9" ht="52.5" customHeight="1">
       <c r="B13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>8</v>
@@ -2206,10 +2220,10 @@
         <v>60</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>43</v>
@@ -2229,10 +2243,10 @@
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2252,16 +2266,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2275,16 +2289,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2301,10 +2315,10 @@
         <v>64</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2318,14 +2332,14 @@
     </row>
     <row r="19" spans="3:9" ht="63.75" customHeight="1">
       <c r="C19" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40" t="s">
@@ -2337,19 +2351,19 @@
     </row>
     <row r="20" spans="3:9" ht="84" customHeight="1">
       <c r="C20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>119</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>7</v>
@@ -2363,10 +2377,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>37</v>
@@ -2378,7 +2392,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="52.5" customHeight="1">
@@ -2389,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>73</v>
@@ -2406,55 +2420,55 @@
     </row>
     <row r="23" spans="3:9" ht="52.5" customHeight="1">
       <c r="C23" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="E23" s="53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="52.5" customHeight="1">
       <c r="C24" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>39</v>
@@ -2468,16 +2482,16 @@
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>38</v>
@@ -2498,10 +2512,10 @@
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>80</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>81</v>
       </c>
       <c r="H27" s="61" t="s">
         <v>6</v>
@@ -2512,16 +2526,16 @@
         <v>78</v>
       </c>
       <c r="D28" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>127</v>
-      </c>
       <c r="F28" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="61" t="s">
         <v>7</v>
@@ -2673,15 +2687,17 @@
       <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="46" t="s">
+        <v>136</v>
+      </c>
       <c r="F39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="H39" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="52.5" customHeight="1">
@@ -2689,20 +2705,22 @@
         <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="G40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I40" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="84" customHeight="1">
@@ -2710,10 +2728,10 @@
         <v>55</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>56</v>
@@ -2747,7 +2765,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2757,12 +2775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,12 +2793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -944,10 +944,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getmapinfo", mapid:31, imgpath:"/img/", x: 0, y:0}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すべてのマップＩＤとマップ名を取得</t>
     <rPh sb="13" eb="14">
       <t>メイ</t>
@@ -1267,6 +1263,10 @@
     <rPh sb="11" eb="13">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapinfo", mapid:31, imgpath:"/img/", pos:{x:0, y:0, width:800, height:600}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2243,10 +2243,10 @@
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>133</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>134</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2266,16 +2266,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="45" t="s">
         <v>129</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>130</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2289,16 +2289,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2318,7 +2318,7 @@
         <v>105</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2332,14 +2332,14 @@
     </row>
     <row r="19" spans="3:9" ht="63.75" customHeight="1">
       <c r="C19" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="53" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40" t="s">
@@ -2351,7 +2351,7 @@
     </row>
     <row r="20" spans="3:9" ht="84" customHeight="1">
       <c r="C20" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>107</v>
@@ -2360,10 +2360,10 @@
         <v>108</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>7</v>
@@ -2447,7 +2447,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>91</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>40</v>
@@ -2482,16 +2482,16 @@
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>38</v>
@@ -2526,13 +2526,13 @@
         <v>78</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="60" t="s">
         <v>125</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>126</v>
       </c>
       <c r="G28" s="60" t="s">
         <v>80</v>
@@ -2688,7 +2688,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>79</v>
@@ -2705,16 +2705,16 @@
         <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>82</v>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -674,22 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">UserId、x座標、y座標、移動先MapId </t>
-    <rPh sb="8" eb="10">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーバーからの返り値を使って、クライアント側で自分の現在マップを変更する</t>
     <rPh sb="7" eb="8">
       <t>カエ</t>
@@ -936,10 +920,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"transfermap", x: 30, y:30, mapid:31}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{method:"getmapinfo", mapid:31}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1267,6 +1247,20 @@
   </si>
   <si>
     <t>{method:"getmapinfo", mapid:31, imgpath:"/img/", pos:{x:0, y:0, width:800, height:600}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移動先MapId </t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"transfermap", mapid:31}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1958,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1976,13 +1970,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="68.25" customHeight="1">
       <c r="D1" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="18" thickBot="1"/>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -2001,7 +1995,7 @@
     </row>
     <row r="4" spans="2:9" ht="52.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>12</v>
@@ -2022,7 +2016,7 @@
     </row>
     <row r="5" spans="2:9" ht="52.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>12</v>
@@ -2052,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>16</v>
@@ -2075,7 +2069,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>17</v>
@@ -2092,10 +2086,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2114,7 +2108,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>22</v>
@@ -2132,10 +2126,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -2155,7 +2149,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>23</v>
@@ -2169,13 +2163,13 @@
     </row>
     <row r="12" spans="2:9" ht="52.5" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="18" t="s">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="13" spans="2:9" ht="52.5" customHeight="1">
       <c r="B13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>8</v>
@@ -2220,10 +2214,10 @@
         <v>60</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>43</v>
@@ -2243,10 +2237,10 @@
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2266,16 +2260,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2289,16 +2283,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2315,10 +2309,10 @@
         <v>64</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2332,14 +2326,14 @@
     </row>
     <row r="19" spans="3:9" ht="63.75" customHeight="1">
       <c r="C19" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40" t="s">
@@ -2351,19 +2345,19 @@
     </row>
     <row r="20" spans="3:9" ht="84" customHeight="1">
       <c r="C20" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>116</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>7</v>
@@ -2377,10 +2371,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="53" t="s">
         <v>110</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>111</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>37</v>
@@ -2392,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="52.5" customHeight="1">
@@ -2400,16 +2394,16 @@
         <v>36</v>
       </c>
       <c r="D22" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>34</v>
@@ -2420,55 +2414,55 @@
     </row>
     <row r="23" spans="3:9" ht="52.5" customHeight="1">
       <c r="C23" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="52.5" customHeight="1">
       <c r="C24" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>39</v>
@@ -2482,16 +2476,16 @@
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>38</v>
@@ -2505,17 +2499,17 @@
     </row>
     <row r="27" spans="3:9" ht="52.5" customHeight="1">
       <c r="C27" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>80</v>
       </c>
       <c r="H27" s="61" t="s">
         <v>6</v>
@@ -2523,19 +2517,19 @@
     </row>
     <row r="28" spans="3:9" ht="52.5" customHeight="1">
       <c r="C28" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>124</v>
-      </c>
       <c r="F28" s="60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="61" t="s">
         <v>7</v>
@@ -2546,10 +2540,10 @@
     </row>
     <row r="29" spans="3:9" ht="52.5" customHeight="1">
       <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="11"/>
@@ -2682,45 +2676,45 @@
     </row>
     <row r="39" spans="3:9" ht="52.5" customHeight="1">
       <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E39" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="H39" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="52.5" customHeight="1">
       <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="G40" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="84" customHeight="1">
@@ -2728,10 +2722,10 @@
         <v>55</v>
       </c>
       <c r="D41" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="53" t="s">
         <v>107</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>108</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>56</v>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -839,10 +839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. keyはすべて小文字</t>
     <rPh sb="10" eb="13">
       <t>コモジ</t>
@@ -854,10 +850,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getuserinfo",userid:000}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{method:"userinfo", userid:000, username:"name", x: 30, y:30, mapid:31, avatar:1}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1261,6 +1253,61 @@
   </si>
   <si>
     <t>{method:"transfermap", mapid:31}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getmapuser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapuser", mapid:"31"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列[userid]</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmapuser", userlist:[000,001,002]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップに存在するユーザを取得する</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップに存在するユーザを取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getmaplist",maplist: [{mapid: 31, mapname:"3A教室"},{mapid:32, mapname:"3B教室"}, . . . . ]}</t>
+    <rPh sb="54" eb="56">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キョウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserId,mapid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"getuserinfo",userid:000, mapid:31}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1268,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1328,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1463,8 +1526,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1652,8 +1717,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1950,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1970,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="68.25" customHeight="1">
       <c r="D1" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="18" thickBot="1"/>
@@ -2046,7 +2113,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>16</v>
@@ -2069,7 +2136,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>17</v>
@@ -2086,10 +2153,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2108,7 +2175,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>22</v>
@@ -2129,7 +2196,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -2149,7 +2216,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>23</v>
@@ -2217,7 +2284,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>43</v>
@@ -2237,10 +2304,10 @@
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2260,16 +2327,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2283,16 +2350,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2309,10 +2376,10 @@
         <v>64</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2326,14 +2393,14 @@
     </row>
     <row r="19" spans="3:9" ht="63.75" customHeight="1">
       <c r="C19" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40" t="s">
@@ -2345,19 +2412,19 @@
     </row>
     <row r="20" spans="3:9" ht="84" customHeight="1">
       <c r="C20" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>114</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>7</v>
@@ -2371,10 +2438,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>37</v>
@@ -2394,10 +2461,10 @@
         <v>36</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>72</v>
@@ -2420,7 +2487,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>90</v>
@@ -2441,7 +2508,7 @@
         <v>89</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>90</v>
@@ -2455,112 +2522,128 @@
       </c>
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C26" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C27" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C28" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C29" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C30" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C26" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C27" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="60" t="s">
+      <c r="G30" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C28" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="61" t="s">
+      <c r="H30" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C29" s="1" t="s">
+    <row r="31" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
       <c r="E31" s="46"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2575,70 +2658,46 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="46"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="46"/>
-      <c r="F34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="3:9" ht="52.5" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E35" s="46"/>
-      <c r="F35" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="3:9" ht="52.5" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>27</v>
@@ -2649,14 +2708,14 @@
     </row>
     <row r="37" spans="3:9" ht="52.5" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5" t="s">
@@ -2667,94 +2726,134 @@
       </c>
     </row>
     <row r="38" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="46"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="5"/>
+      <c r="F38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="3:9" ht="52.5" customHeight="1">
       <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E41" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="84" customHeight="1">
-      <c r="C41" s="36" t="s">
+    <row r="43" spans="3:9" ht="84" customHeight="1">
+      <c r="C43" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="38" t="s">
+      <c r="D43" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G43" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H43" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I43" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="52.5" customHeight="1">
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="6"/>
+    <row r="44" spans="3:9" ht="52.5" customHeight="1">
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -1256,10 +1256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>getmapuser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mapid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1308,6 +1304,10 @@
   </si>
   <si>
     <t>{method:"getuserinfo",userid:000, mapid:31}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getmapuserlist</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2019,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2153,10 +2153,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2418,7 +2418,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>110</v>
@@ -2523,32 +2523,32 @@
     </row>
     <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="E25" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>139</v>
-      </c>
       <c r="F25" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="40"/>
     </row>
     <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="36" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>141</v>
-      </c>
       <c r="F26" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="40"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -1308,6 +1308,19 @@
   </si>
   <si>
     <t>getmapuserlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータがない場合は自分の情報</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2019,29 +2032,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="15"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="15"/>
+    <col min="2" max="2" width="8.875" style="15"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="70.625" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="68.25" customHeight="1">
+    <row r="1" spans="2:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="18" thickBot="1"/>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
+    <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>92</v>
       </c>
@@ -2060,7 +2073,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:9" ht="52.5" customHeight="1">
+    <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
         <v>91</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="52.5" customHeight="1">
+    <row r="5" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
@@ -2105,7 +2118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="52.5" customHeight="1">
+    <row r="6" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="24" t="s">
         <v>31</v>
       </c>
@@ -2128,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="52.5" customHeight="1">
+    <row r="7" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="52.5" customHeight="1">
+    <row r="8" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2171,9 @@
       <c r="E8" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="30" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="30"/>
       <c r="H8" s="31" t="s">
         <v>6</v>
@@ -2167,7 +2182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="52.5" customHeight="1">
+    <row r="9" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="52.5" customHeight="1">
+    <row r="10" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="52.5" customHeight="1">
+    <row r="11" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="52.5" customHeight="1">
+    <row r="12" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15" t="s">
         <v>91</v>
       </c>
@@ -2252,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="52.5" customHeight="1">
+    <row r="13" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
@@ -2276,7 +2291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="52.5" customHeight="1">
+    <row r="14" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="32" t="s">
         <v>60</v>
       </c>
@@ -2299,7 +2314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="52.5" customHeight="1">
+    <row r="15" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="117" customHeight="1">
+    <row r="16" spans="2:9" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="117" customHeight="1">
+    <row r="17" spans="3:9" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="120" customHeight="1">
+    <row r="18" spans="3:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="63.75" customHeight="1">
+    <row r="19" spans="3:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="36" t="s">
         <v>113</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="84" customHeight="1">
+    <row r="20" spans="3:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="36" t="s">
         <v>112</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="52.5" customHeight="1">
+    <row r="21" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="36" t="s">
         <v>32</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="52.5" customHeight="1">
+    <row r="22" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="36" t="s">
         <v>36</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="52.5" customHeight="1">
+    <row r="23" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="36" t="s">
         <v>83</v>
       </c>
@@ -2500,7 +2515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="52.5" customHeight="1">
+    <row r="24" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="36" t="s">
         <v>83</v>
       </c>
@@ -2521,7 +2536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="52.5" customHeight="1">
+    <row r="25" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="36" t="s">
         <v>146</v>
       </c>
@@ -2537,7 +2552,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="40"/>
     </row>
-    <row r="26" spans="3:9" ht="52.5" customHeight="1">
+    <row r="26" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="36" t="s">
         <v>146</v>
       </c>
@@ -2553,7 +2568,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="40"/>
     </row>
-    <row r="27" spans="3:9" ht="52.5" customHeight="1">
+    <row r="27" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="41" t="s">
         <v>119</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="52.5" customHeight="1">
+    <row r="28" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="41" t="s">
         <v>119</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="52.5" customHeight="1">
+    <row r="29" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="57" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="52.5" customHeight="1">
+    <row r="30" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="57" t="s">
         <v>77</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="52.5" customHeight="1">
+    <row r="31" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2649,7 +2664,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="3:9" ht="52.5" customHeight="1">
+    <row r="32" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="46"/>
@@ -2657,7 +2672,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="3:9" ht="52.5" customHeight="1">
+    <row r="33" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="46"/>
@@ -2665,7 +2680,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="3:9" ht="52.5" customHeight="1">
+    <row r="34" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="46"/>
@@ -2673,7 +2688,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="3:9" ht="52.5" customHeight="1">
+    <row r="35" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2700,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="3:9" ht="52.5" customHeight="1">
+    <row r="36" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,7 +2721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="52.5" customHeight="1">
+    <row r="37" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2725,7 +2740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="52.5" customHeight="1">
+    <row r="38" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2746,7 +2761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="52.5" customHeight="1">
+    <row r="39" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="52.5" customHeight="1">
+    <row r="40" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="46"/>
@@ -2773,7 +2788,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="3:9" ht="52.5" customHeight="1">
+    <row r="41" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
@@ -2793,7 +2808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="52.5" customHeight="1">
+    <row r="42" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
@@ -2816,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="84" customHeight="1">
+    <row r="43" spans="3:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="36" t="s">
         <v>55</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="52.5" customHeight="1">
+    <row r="44" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="46"/>
@@ -2847,7 +2862,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
+    <row r="45" spans="3:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="55"/>
@@ -2873,7 +2888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2891,7 +2906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameMassage.xlsx
+++ b/gameMassage.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="15585"/>
   </bookViews>
@@ -956,55 +956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
-    <rPh sb="7" eb="9">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒトコト</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[重複 1、無効 2、登録可能 0]</t>
     <rPh sb="1" eb="3">
       <t>ジュウフク</t>
@@ -1080,63 +1031,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{method:"getprofile",studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トークンキー、トークンシークレットキー、UserID、学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、学年の表示、性別の表示、生年月日の表示</t>
-    <rPh sb="27" eb="29">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒトコト</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{method:"getprofile",accesstoken:"",accesstokensecret:"",studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", vgrade:0, vgender:0, vbirthday:0}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録時に使う。最後の３つは表示/非表示設定(show 1/ hide:0)。</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -1321,14 +1215,120 @@
     <rPh sb="14" eb="16">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント、secretKey,学年の表示、性別の表示、生年月日の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒトコト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userid, 学籍番号、名前、アバターID、学年、性別、生年月日、一言コメント,学年の表示、性別の表示、生年月日の表示</t>
+    <rPh sb="8" eb="10">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒトコト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"setprofile, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"", secretkey:"",vgrade:0, vgender:0, vbirthday:0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{method:"setprofile,userid:002, studentid:"z9999",username:"name", avatarid:1, grade:1, gender:1, birthday:"2000-01-01",comment:"",vgrade:0, vgender:0, vbirthday:0}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,14 +2029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="8.875" style="15"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -2048,13 +2048,13 @@
     <col min="9" max="9" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="68.25" customHeight="1">
       <c r="D1" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>92</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" ht="52.5" customHeight="1">
       <c r="B4" s="15" t="s">
         <v>91</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="52.5" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="52.5" customHeight="1">
       <c r="C6" s="24" t="s">
         <v>31</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="52.5" customHeight="1">
       <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
@@ -2161,18 +2161,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="52.5" customHeight="1">
       <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="31" t="s">
@@ -2182,7 +2182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="52.5" customHeight="1">
       <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="52.5" customHeight="1">
       <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="52.5" customHeight="1">
       <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="52.5" customHeight="1">
       <c r="B12" s="15" t="s">
         <v>91</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="52.5" customHeight="1">
       <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="52.5" customHeight="1">
       <c r="C14" s="32" t="s">
         <v>60</v>
       </c>
@@ -2314,15 +2314,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="52.5" customHeight="1">
       <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>62</v>
@@ -2337,21 +2337,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="117" customHeight="1">
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>6</v>
@@ -2360,21 +2360,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9" ht="117" customHeight="1">
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>27</v>
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9" ht="120" customHeight="1">
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>102</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>63</v>
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9" ht="63.75" customHeight="1">
       <c r="C19" s="36" t="s">
         <v>113</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9" ht="84" customHeight="1">
       <c r="C20" s="36" t="s">
         <v>112</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>110</v>
@@ -2448,7 +2448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9" ht="52.5" customHeight="1">
       <c r="C21" s="36" t="s">
         <v>32</v>
       </c>
@@ -2471,15 +2471,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9" ht="52.5" customHeight="1">
       <c r="C22" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>72</v>
@@ -2494,7 +2494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9" ht="52.5" customHeight="1">
       <c r="C23" s="36" t="s">
         <v>83</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9" ht="52.5" customHeight="1">
       <c r="C24" s="36" t="s">
         <v>83</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>89</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>90</v>
@@ -2536,41 +2536,41 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9" ht="52.5" customHeight="1">
       <c r="C25" s="36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D25" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="38" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="40"/>
     </row>
-    <row r="26" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9" ht="52.5" customHeight="1">
       <c r="C26" s="36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="40"/>
     </row>
-    <row r="27" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9" ht="52.5" customHeight="1">
       <c r="C27" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>40</v>
@@ -2588,18 +2588,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9" ht="52.5" customHeight="1">
       <c r="C28" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>38</v>
@@ -2611,7 +2611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9" ht="52.5" customHeight="1">
       <c r="C29" s="57" t="s">
         <v>75</v>
       </c>
@@ -2629,18 +2629,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9" ht="52.5" customHeight="1">
       <c r="C30" s="57" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>120</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>121</v>
       </c>
       <c r="G30" s="60" t="s">
         <v>79</v>
@@ -2652,7 +2652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9" ht="52.5" customHeight="1">
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:9" ht="52.5" customHeight="1">
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="46"/>
@@ -2672,7 +2672,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:9" ht="52.5" customHeight="1">
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="46"/>
@@ -2680,7 +2680,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:9" ht="52.5" customHeight="1">
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="46"/>
@@ -2688,7 +2688,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:9" ht="52.5" customHeight="1">
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:9" ht="52.5" customHeight="1">
       <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:9" ht="52.5" customHeight="1">
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:9" ht="52.5" customHeight="1">
       <c r="C38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:9" ht="52.5" customHeight="1">
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:9" ht="52.5" customHeight="1">
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="46"/>
@@ -2788,7 +2788,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:9" ht="52.5" customHeight="1">
       <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>76</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>78</v>
@@ -2808,21 +2808,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:9" ht="52.5" customHeight="1">
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
@@ -2831,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:9" ht="84" customHeight="1">
       <c r="C43" s="36" t="s">
         <v>55</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:9" ht="52.5" customHeight="1">
       <c r="C44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="46"/>
@@ -2862,7 +2862,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="3:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="55"/>
@@ -2873,7 +2873,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2883,12 +2883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,12 +2901,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
